--- a/public/assets/files/xmltemplate.xlsx
+++ b/public/assets/files/xmltemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Contabilidad\AppContador\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF24B69-E3F7-4520-B385-43E07FA21C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277B80F4-5619-4CCC-8A56-501E07712187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0D4A59A9-9897-487B-A257-5068FE3D6F81}"/>
   </bookViews>
@@ -33,19 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>CÓDIGO</t>
-  </si>
-  <si>
-    <t>SERIE</t>
-  </si>
-  <si>
-    <t>NÚMERO</t>
-  </si>
-  <si>
-    <t>RUC CLIENTE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -65,10 +53,19 @@
     <t>RUC PROVEEDOR</t>
   </si>
   <si>
-    <t>RAZÓN SOCIAL CLIENTE</t>
-  </si>
-  <si>
-    <t>UBIGEO</t>
+    <t>RUC EMISOR</t>
+  </si>
+  <si>
+    <t>RAZÓN SOCIAL EMISOR</t>
+  </si>
+  <si>
+    <t>Tipo de documento</t>
+  </si>
+  <si>
+    <t>numero de serie</t>
+  </si>
+  <si>
+    <t>numero de documento</t>
   </si>
 </sst>
 </file>
@@ -85,9 +82,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -99,7 +95,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE9ECEF"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,20 +124,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{883B4DF4-C132-4FE6-8AA5-299CEA4516E3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -453,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4BE83F-4EC4-417A-8C8C-BC95AA130763}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,42 +469,39 @@
     <col min="11" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
